--- a/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +424,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -432,14 +432,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -414,14 +414,316 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>555</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nguyễn thị hồng cúc</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>910000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>910000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -432,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +759,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +769,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="4">
@@ -543,37 +845,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>-2249000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6571428.571428572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -583,7 +885,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -593,7 +895,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +905,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,37 +915,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9857142.857142856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,7 +965,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -673,11 +975,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2511000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7481428.571428572</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9857142.857142856</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>19849571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,107 +455,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -590,76 +525,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lê Văn Linh</t>
-        </is>
+      <c r="H2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>7000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>7000000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000000</v>
+        <v>0.13</v>
       </c>
       <c r="N2" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Sang sang</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>910000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -676,51 +564,24 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>7000000</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>7000000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000000</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>910000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +606,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -759,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -769,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6571428.571428572</v>
+        <v>6982142.857142857</v>
       </c>
     </row>
     <row r="13">
@@ -939,7 +800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9857142.857142856</v>
+        <v>10473214.28571429</v>
       </c>
     </row>
     <row r="21">
@@ -1019,7 +880,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2511000</v>
+        <v>-1654000</v>
       </c>
     </row>
     <row r="29">
@@ -1029,7 +890,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7481428.571428572</v>
+        <v>7892142.857142857</v>
       </c>
     </row>
     <row r="30">
@@ -1039,7 +900,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9857142.857142856</v>
+        <v>10473214.28571429</v>
       </c>
     </row>
     <row r="31">
@@ -1049,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19849571.42857143</v>
+        <v>16711357.14285714</v>
       </c>
     </row>
   </sheetData>
